--- a/data/georgia_census/qvemo-qartli/gardabani/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/gardabani/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F023187B-E4BA-469C-B490-3F509F04B3B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF1D37E-95F6-4D7C-9337-A6C9535C5B0A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B9973C-E8DE-4489-B5BE-A450D32E73AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47F9E1D-E123-4611-A3FE-3BC9616422E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C942940D-8920-47CA-8B9B-0227ECDBC7E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E081541-6AA8-4A04-8998-AD9ED647BEAC}"/>
 </file>